--- a/Health/HealthCare Facilities/Admissions/AdmissionToDentistFacilitiesSG.xlsx
+++ b/Health/HealthCare Facilities/Admissions/AdmissionToDentistFacilitiesSG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\Admissions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A7520FB-5412-4707-8968-6D11F58512E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83481184-638F-4B94-98CA-8F9BE3EE1B53}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdmissionToDentistFacilitiesSG" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Dental Facilities</t>
   </si>
@@ -34,14 +34,17 @@
     <t>Polyclinics</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>No. Of Admission</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +175,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,10 +528,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -876,236 +887,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>2006</v>
-      </c>
-      <c r="C1" s="2">
-        <v>2007</v>
-      </c>
-      <c r="D1" s="2">
-        <v>2008</v>
-      </c>
-      <c r="E1" s="2">
-        <v>2009</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G1" s="2">
-        <v>2011</v>
-      </c>
-      <c r="H1" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I1" s="2">
-        <v>2013</v>
-      </c>
-      <c r="J1" s="2">
-        <v>2014</v>
-      </c>
-      <c r="K1" s="2">
-        <v>2015</v>
-      </c>
-      <c r="L1" s="2">
-        <v>2016</v>
-      </c>
-      <c r="M1" s="2">
-        <v>2017</v>
-      </c>
-      <c r="N1" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>521637</v>
-      </c>
-      <c r="C2" s="1">
-        <v>526758</v>
-      </c>
-      <c r="D2" s="1">
         <v>505309</v>
       </c>
-      <c r="E2" s="1">
-        <v>457214</v>
-      </c>
-      <c r="F2" s="1">
-        <v>448362</v>
-      </c>
-      <c r="G2" s="1">
-        <v>436566</v>
-      </c>
-      <c r="H2" s="1">
-        <v>438133</v>
-      </c>
-      <c r="I2" s="1">
-        <v>455475</v>
-      </c>
-      <c r="J2" s="1">
-        <v>449372</v>
-      </c>
-      <c r="K2" s="1">
-        <v>456931</v>
-      </c>
-      <c r="L2" s="1">
-        <v>463751</v>
-      </c>
-      <c r="M2" s="1">
-        <v>451079</v>
-      </c>
-      <c r="N2" s="1">
-        <v>436548</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>222919</v>
-      </c>
-      <c r="C3" s="1">
-        <v>274142</v>
-      </c>
-      <c r="D3" s="1">
         <v>283746</v>
       </c>
-      <c r="E3" s="1">
-        <v>282194</v>
-      </c>
-      <c r="F3" s="1">
-        <v>291247</v>
-      </c>
-      <c r="G3" s="1">
-        <v>295016</v>
-      </c>
-      <c r="H3" s="1">
-        <v>319812</v>
-      </c>
-      <c r="I3" s="1">
-        <v>339319</v>
-      </c>
-      <c r="J3" s="1">
-        <v>357878</v>
-      </c>
-      <c r="K3" s="1">
-        <v>383101</v>
-      </c>
-      <c r="L3" s="1">
-        <v>415456</v>
-      </c>
-      <c r="M3" s="1">
-        <v>425466</v>
-      </c>
-      <c r="N3" s="1">
-        <v>429615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>93910</v>
-      </c>
-      <c r="C4" s="1">
-        <v>88310</v>
-      </c>
-      <c r="D4" s="1">
         <v>94161</v>
       </c>
-      <c r="E4" s="1">
+      <c r="C4" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>457214</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>282194</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>99407</v>
       </c>
-      <c r="F4" s="1">
+      <c r="C7" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>448362</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>291247</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>123265</v>
       </c>
-      <c r="G4" s="1">
+      <c r="C10" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>436566</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>295016</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
         <v>144220</v>
       </c>
-      <c r="H4" s="1">
+      <c r="C13" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>438133</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>319812</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>135113</v>
       </c>
-      <c r="I4" s="1">
+      <c r="C16" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>455475</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>339319</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>149177</v>
       </c>
-      <c r="J4" s="1">
+      <c r="C19" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>449372</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>357878</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>158990</v>
       </c>
-      <c r="K4" s="1">
+      <c r="C22" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>456931</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>383101</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>167960</v>
       </c>
-      <c r="L4" s="1">
+      <c r="C25" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>463751</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>415456</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
         <v>179326</v>
       </c>
-      <c r="M4" s="1">
+      <c r="C28" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>451079</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>425466</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
         <v>184971</v>
       </c>
-      <c r="N4" s="1">
+      <c r="C31" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>436548</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>429615</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
         <v>211874</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>838466</v>
-      </c>
-      <c r="C5" s="1">
-        <v>889210</v>
-      </c>
-      <c r="D5" s="1">
-        <v>883216</v>
-      </c>
-      <c r="E5" s="1">
-        <v>838815</v>
-      </c>
-      <c r="F5" s="1">
-        <v>862874</v>
-      </c>
-      <c r="G5" s="1">
-        <v>875802</v>
-      </c>
-      <c r="H5" s="1">
-        <v>893058</v>
-      </c>
-      <c r="I5" s="1">
-        <v>943971</v>
-      </c>
-      <c r="J5" s="1">
-        <v>966240</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1007992</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1058533</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1061516</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1078037</v>
+      <c r="C34" s="2">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
